--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra.Rudeloff\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74DEE6-0E75-4F17-9150-E0A0D87E14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C74693-E8FE-4993-B078-862BE46D515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>case_x</t>
   </si>
@@ -419,18 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C9A12-737E-45B0-A329-7250B15CD6A3}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -452,7 +452,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -463,7 +463,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -474,7 +474,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -485,7 +485,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -496,7 +496,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -507,7 +507,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -518,7 +518,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -529,7 +529,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -540,7 +540,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -551,7 +551,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -562,7 +562,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -573,7 +573,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -584,7 +584,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -592,6 +592,50 @@
         <v>150</v>
       </c>
       <c r="C15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>850</v>
+      </c>
+      <c r="C16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>650</v>
+      </c>
+      <c r="C17">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>450</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>750</v>
+      </c>
+      <c r="C19">
         <v>250</v>
       </c>
     </row>
@@ -602,15 +646,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E63A60-46A5-4F86-B9A0-EDE5315557A8}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -624,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -638,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -652,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -666,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -680,7 +724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -694,7 +738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -708,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -719,6 +763,34 @@
         <v>855</v>
       </c>
       <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>112</v>
+      </c>
+      <c r="C9">
+        <v>198</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>105</v>
+      </c>
+      <c r="C10">
+        <v>855</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -730,19 +802,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -750,7 +822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -758,11 +830,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
     </row>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C74693-E8FE-4993-B078-862BE46D515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA315356-4A13-4B98-96E8-B8836B0FF1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>case_x</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>population_per_cell</t>
+  </si>
+  <si>
+    <t>population_type</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>random</t>
   </si>
 </sst>
 </file>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C9A12-737E-45B0-A329-7250B15CD6A3}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,6 +648,50 @@
         <v>250</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>850</v>
+      </c>
+      <c r="C20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>650</v>
+      </c>
+      <c r="C21">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>450</v>
+      </c>
+      <c r="C22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>750</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -646,10 +699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E63A60-46A5-4F86-B9A0-EDE5315557A8}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,6 +844,34 @@
         <v>855</v>
       </c>
       <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>112</v>
+      </c>
+      <c r="C11">
+        <v>198</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>105</v>
+      </c>
+      <c r="C12">
+        <v>855</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -802,48 +883,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA315356-4A13-4B98-96E8-B8836B0FF1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95671AFF-C5E5-4955-88A1-DE76F83BCC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="-25693" yWindow="-3907" windowWidth="25786" windowHeight="13867" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>case_x</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>Chain 2</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -92,12 +101,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C9A12-737E-45B0-A329-7250B15CD6A3}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,6 +708,72 @@
         <v>250</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>150</v>
+      </c>
+      <c r="C24">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>250</v>
+      </c>
+      <c r="C25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>350</v>
+      </c>
+      <c r="C26">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>550</v>
+      </c>
+      <c r="C27">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>250</v>
+      </c>
+      <c r="C28">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>550</v>
+      </c>
+      <c r="C29">
+        <v>850</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -699,10 +781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E63A60-46A5-4F86-B9A0-EDE5315557A8}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,6 +955,174 @@
       </c>
       <c r="D12" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>115</v>
+      </c>
+      <c r="C13">
+        <v>825</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>230</v>
+      </c>
+      <c r="C14">
+        <v>735</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>345</v>
+      </c>
+      <c r="C15">
+        <v>855</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>820</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>235</v>
+      </c>
+      <c r="C17">
+        <v>730</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>340</v>
+      </c>
+      <c r="C18">
+        <v>850</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>230</v>
+      </c>
+      <c r="C19">
+        <v>735</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>223</v>
+      </c>
+      <c r="C20">
+        <v>245</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>523</v>
+      </c>
+      <c r="C21">
+        <v>822</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>546</v>
+      </c>
+      <c r="C22">
+        <v>555</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>233</v>
+      </c>
+      <c r="C23">
+        <v>735</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>524</v>
+      </c>
+      <c r="C24">
+        <v>829</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -883,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,7 +1146,7 @@
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -906,8 +1156,14 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -918,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -929,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -940,12 +1196,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra.Rudeloff\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95671AFF-C5E5-4955-88A1-DE76F83BCC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B3AF3B-9230-4E7C-9C69-BE781356ECF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-3907" windowWidth="25786" windowHeight="13867" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>case_x</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Chain 1</t>
   </si>
   <si>
-    <t>population_per_cell</t>
-  </si>
-  <si>
     <t>population_type</t>
   </si>
   <si>
@@ -76,10 +73,25 @@
     <t>Chain 2</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
+    <t>total_population</t>
+  </si>
+  <si>
+    <t>radial_clusters</t>
+  </si>
+  <si>
+    <t>desired_gradient</t>
+  </si>
+  <si>
+    <t>num_clusters</t>
+  </si>
+  <si>
+    <t>main_and_small_clusters</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>ring</t>
   </si>
 </sst>
 </file>
@@ -110,15 +122,41 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -127,9 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,12 +490,12 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -466,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -477,7 +517,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -488,7 +528,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -499,7 +539,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -510,7 +550,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -521,7 +561,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -532,7 +572,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -543,7 +583,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -554,7 +594,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -565,7 +605,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -576,7 +616,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -587,7 +627,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -598,7 +638,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -609,7 +649,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -620,7 +660,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -631,7 +671,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -642,7 +682,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -653,7 +693,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -664,7 +704,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -675,7 +715,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -686,7 +726,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -697,7 +737,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -708,7 +748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -719,7 +759,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -730,7 +770,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -741,7 +781,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -752,7 +792,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -763,7 +803,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -787,9 +827,9 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -803,7 +843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -817,7 +857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -831,7 +871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -845,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -859,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -873,7 +913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -887,7 +927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -901,7 +941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -915,7 +955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -929,7 +969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -943,7 +983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -957,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -971,7 +1011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -985,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -999,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1010,10 +1050,10 @@
         <v>820</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1024,10 +1064,10 @@
         <v>730</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1038,10 +1078,10 @@
         <v>850</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1055,7 +1095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1069,7 +1109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1083,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1097,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1108,10 +1148,10 @@
         <v>735</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1122,7 +1162,7 @@
         <v>829</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1133,105 +1173,230 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1">
+        <v>500</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>500</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>500</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>500</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>500</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D10">
+        <v>2500</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D13">
+        <v>300</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra.Rudeloff\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B3AF3B-9230-4E7C-9C69-BE781356ECF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C277700B-63B4-4745-B82D-134076296382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>case_x</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>linear</t>
-  </si>
-  <si>
-    <t>ring</t>
   </si>
 </sst>
 </file>
@@ -824,7 +821,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,21 +1380,6 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D14">
-        <v>300</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra.Rudeloff\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C277700B-63B4-4745-B82D-134076296382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D3ED5-60CC-4661-AFCD-6B37DB0C63ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="47520" yWindow="144" windowWidth="21600" windowHeight="11292" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>case_x</t>
   </si>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +123,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,39 +140,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,19 +1182,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1298,24 +1294,24 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>5000</v>
       </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
+      <c r="D9" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1324,61 +1320,110 @@
       <c r="C10" s="1">
         <v>5000</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>2500</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>300</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
         <v>10000</v>
       </c>
-      <c r="D11">
-        <v>5000</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>300</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>10000</v>
       </c>
-      <c r="D13">
-        <v>300</v>
+      <c r="D13" s="1">
+        <v>1500</v>
       </c>
       <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1500</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra.Rudeloff\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D3ED5-60CC-4661-AFCD-6B37DB0C63ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE63967-13B6-4383-B004-F8DE374AA2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47520" yWindow="144" windowWidth="21600" windowHeight="11292" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
   <si>
     <t>case_x</t>
   </si>
@@ -157,11 +157,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -477,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C9A12-737E-45B0-A329-7250B15CD6A3}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,6 +806,72 @@
         <v>850</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>550</v>
+      </c>
+      <c r="C30">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>250</v>
+      </c>
+      <c r="C31">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>550</v>
+      </c>
+      <c r="C32">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>550</v>
+      </c>
+      <c r="C33">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>250</v>
+      </c>
+      <c r="C34">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>550</v>
+      </c>
+      <c r="C35">
+        <v>850</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -814,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E63A60-46A5-4F86-B9A0-EDE5315557A8}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D48" sqref="A37:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,6 +1220,174 @@
         <v>829</v>
       </c>
       <c r="D24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>230</v>
+      </c>
+      <c r="C25">
+        <v>735</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>223</v>
+      </c>
+      <c r="C26">
+        <v>245</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>523</v>
+      </c>
+      <c r="C27">
+        <v>822</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>546</v>
+      </c>
+      <c r="C28">
+        <v>555</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>233</v>
+      </c>
+      <c r="C29">
+        <v>735</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>524</v>
+      </c>
+      <c r="C30">
+        <v>829</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>230</v>
+      </c>
+      <c r="C31">
+        <v>735</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>223</v>
+      </c>
+      <c r="C32">
+        <v>245</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>523</v>
+      </c>
+      <c r="C33">
+        <v>822</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>546</v>
+      </c>
+      <c r="C34">
+        <v>555</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>750</v>
+      </c>
+      <c r="C35">
+        <v>735</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>750</v>
+      </c>
+      <c r="C36">
+        <v>829</v>
+      </c>
+      <c r="D36" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1168,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,19 +1415,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1392,13 +1625,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>5000</v>
       </c>
       <c r="D15" s="1">
@@ -1409,13 +1642,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>5000</v>
       </c>
       <c r="D16" s="1">

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra.Rudeloff\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE63967-13B6-4383-B004-F8DE374AA2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898F8AFE-7849-4D2A-B87F-390D5FCBD985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>case_x</t>
   </si>
@@ -476,18 +476,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C9A12-737E-45B0-A329-7250B15CD6A3}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -498,9 +498,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>750</v>
@@ -509,9 +509,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>150</v>
@@ -520,29 +520,29 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="C4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>450</v>
-      </c>
-      <c r="C5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -550,87 +550,87 @@
         <v>50</v>
       </c>
       <c r="C6">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="C7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>850</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="C9">
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>850</v>
       </c>
       <c r="C10">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>950</v>
+      </c>
+      <c r="C11">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>750</v>
-      </c>
-      <c r="C11">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>50</v>
       </c>
       <c r="C12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="C13">
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -638,164 +638,164 @@
         <v>50</v>
       </c>
       <c r="C14">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
         <v>150</v>
       </c>
-      <c r="C15">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>150</v>
+      </c>
+      <c r="C17">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>850</v>
-      </c>
-      <c r="C16">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>650</v>
-      </c>
-      <c r="C17">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="C18">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19">
+        <v>650</v>
+      </c>
+      <c r="C19">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>450</v>
+      </c>
+      <c r="C20">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
         <v>750</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>850</v>
-      </c>
-      <c r="C20">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>650</v>
-      </c>
-      <c r="C21">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="C22">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23">
+        <v>650</v>
+      </c>
+      <c r="C23">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>450</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
         <v>750</v>
       </c>
-      <c r="C23">
+      <c r="C25">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>150</v>
-      </c>
-      <c r="C24">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>250</v>
-      </c>
-      <c r="C25">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="C26">
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="C27">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="C28">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6</v>
       </c>
@@ -803,32 +803,32 @@
         <v>550</v>
       </c>
       <c r="C29">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>250</v>
+      </c>
+      <c r="C30">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>550</v>
+      </c>
+      <c r="C31">
         <v>850</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>550</v>
-      </c>
-      <c r="C30">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>250</v>
-      </c>
-      <c r="C31">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -836,32 +836,32 @@
         <v>550</v>
       </c>
       <c r="C32">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>250</v>
+      </c>
+      <c r="C33">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>550</v>
+      </c>
+      <c r="C34">
         <v>850</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>8</v>
-      </c>
-      <c r="B33">
-        <v>550</v>
-      </c>
-      <c r="C33">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34">
-        <v>250</v>
-      </c>
-      <c r="C34">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -869,6 +869,28 @@
         <v>550</v>
       </c>
       <c r="C35">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>250</v>
+      </c>
+      <c r="C36">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>550</v>
+      </c>
+      <c r="C37">
         <v>850</v>
       </c>
     </row>
@@ -879,15 +901,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E63A60-46A5-4F86-B9A0-EDE5315557A8}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D48" sqref="A37:D48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -901,9 +923,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>112</v>
@@ -915,9 +937,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>823</v>
@@ -929,79 +951,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
+        <v>112</v>
+      </c>
+      <c r="C4">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>823</v>
+      </c>
+      <c r="C5">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>888</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>846</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>105</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>855</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>487</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>537</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>2</v>
-      </c>
-      <c r="B7">
-        <v>112</v>
-      </c>
-      <c r="C7">
-        <v>198</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>105</v>
-      </c>
-      <c r="C8">
-        <v>855</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
       </c>
       <c r="B9">
         <v>112</v>
@@ -1013,9 +1035,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>105</v>
@@ -1027,9 +1049,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>112</v>
@@ -1041,9 +1063,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>105</v>
@@ -1055,339 +1077,367 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13">
-        <v>825</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="C14">
-        <v>735</v>
+        <v>855</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>345</v>
+        <v>115</v>
       </c>
       <c r="C15">
-        <v>855</v>
+        <v>825</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="C16">
-        <v>820</v>
+        <v>735</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="C17">
-        <v>730</v>
+        <v>855</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="C18">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
+        <v>235</v>
+      </c>
+      <c r="C19">
+        <v>730</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>340</v>
+      </c>
+      <c r="C20">
+        <v>850</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
         <v>230</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>735</v>
       </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
         <v>223</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>245</v>
       </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>6</v>
-      </c>
-      <c r="B21">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
         <v>523</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>822</v>
       </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
         <v>546</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>555</v>
       </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
         <v>233</v>
-      </c>
-      <c r="C23">
-        <v>735</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>524</v>
-      </c>
-      <c r="C24">
-        <v>829</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>230</v>
       </c>
       <c r="C25">
         <v>735</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>223</v>
+        <v>524</v>
       </c>
       <c r="C26">
-        <v>245</v>
+        <v>829</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
       <c r="B27">
-        <v>523</v>
+        <v>230</v>
       </c>
       <c r="C27">
-        <v>822</v>
+        <v>735</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
       <c r="B28">
-        <v>546</v>
+        <v>223</v>
       </c>
       <c r="C28">
-        <v>555</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7</v>
       </c>
       <c r="B29">
-        <v>233</v>
+        <v>523</v>
       </c>
       <c r="C29">
-        <v>735</v>
+        <v>822</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7</v>
       </c>
       <c r="B30">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="C30">
-        <v>829</v>
+        <v>555</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C31">
         <v>735</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>223</v>
+        <v>524</v>
       </c>
       <c r="C32">
-        <v>245</v>
+        <v>829</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
       <c r="B33">
-        <v>523</v>
+        <v>230</v>
       </c>
       <c r="C33">
-        <v>822</v>
+        <v>735</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>8</v>
       </c>
       <c r="B34">
-        <v>546</v>
+        <v>223</v>
       </c>
       <c r="C34">
-        <v>555</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
       <c r="B35">
-        <v>750</v>
+        <v>523</v>
       </c>
       <c r="C35">
-        <v>735</v>
+        <v>822</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>8</v>
       </c>
       <c r="B36">
+        <v>546</v>
+      </c>
+      <c r="C36">
+        <v>555</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37">
         <v>750</v>
       </c>
-      <c r="C36">
+      <c r="C37">
+        <v>735</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>750</v>
+      </c>
+      <c r="C38">
         <v>829</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1399,22 +1449,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1444,9 +1494,9 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1457,9 +1507,9 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -1470,12 +1520,12 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>500</v>
@@ -1483,12 +1533,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>500</v>
@@ -1496,9 +1546,9 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1509,26 +1559,22 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>500</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D8" s="1">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1537,15 +1583,15 @@
         <v>5000</v>
       </c>
       <c r="D9" s="1">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1554,15 +1600,15 @@
         <v>5000</v>
       </c>
       <c r="D10" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1571,30 +1617,32 @@
         <v>5000</v>
       </c>
       <c r="D11" s="1">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="E11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D12" s="1">
         <v>300</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -1603,30 +1651,28 @@
         <v>10000</v>
       </c>
       <c r="D13" s="1">
+        <v>300</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="1">
         <v>1500</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -1638,12 +1684,12 @@
         <v>100</v>
       </c>
       <c r="E15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1652,9 +1698,26 @@
         <v>5000</v>
       </c>
       <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="1">
         <v>1500</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898F8AFE-7849-4D2A-B87F-390D5FCBD985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904174EF-56B7-4DB2-B578-9C278DE99DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
   <si>
     <t>case_x</t>
   </si>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C9A12-737E-45B0-A329-7250B15CD6A3}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1449,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>500</v>
@@ -1535,10 +1535,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>500</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1561,20 +1561,24 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>500</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+        <v>5000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1583,7 +1587,7 @@
         <v>5000</v>
       </c>
       <c r="D9" s="1">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1591,7 +1595,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -1600,15 +1604,15 @@
         <v>5000</v>
       </c>
       <c r="D10" s="1">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -1617,32 +1621,30 @@
         <v>5000</v>
       </c>
       <c r="D11" s="1">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D12" s="1">
         <v>300</v>
       </c>
-      <c r="E12" s="1">
-        <v>4</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -1651,28 +1653,30 @@
         <v>10000</v>
       </c>
       <c r="D13" s="1">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D14" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -1684,12 +1688,12 @@
         <v>100</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -1698,26 +1702,9 @@
         <v>5000</v>
       </c>
       <c r="D16" s="1">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E17" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904174EF-56B7-4DB2-B578-9C278DE99DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A50B8-20AD-48EA-9531-3735B781FD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>case_x</t>
   </si>
@@ -130,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,15 +153,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,11 +488,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C9A12-737E-45B0-A329-7250B15CD6A3}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -894,6 +904,17 @@
         <v>850</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>650</v>
+      </c>
+      <c r="C38">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -901,11 +922,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E63A60-46A5-4F86-B9A0-EDE5315557A8}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1439,6 +1458,20 @@
       </c>
       <c r="D38" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>550</v>
+      </c>
+      <c r="C39">
+        <v>550</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1449,11 +1482,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1708,6 +1739,19 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1">
+        <v>500</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288A50B8-20AD-48EA-9531-3735B781FD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F82233-54ED-4CA3-AC46-F3EA5C89F896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
   <si>
     <t>case_x</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>uniform</t>
-  </si>
-  <si>
-    <t>random</t>
   </si>
   <si>
     <t>Chain 2</t>
@@ -173,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C9A12-737E-45B0-A329-7250B15CD6A3}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1177,7 +1176,7 @@
         <v>820</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1191,7 +1190,7 @@
         <v>730</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1205,7 +1204,7 @@
         <v>850</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1275,7 +1274,7 @@
         <v>735</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1289,7 +1288,7 @@
         <v>829</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1359,7 +1358,7 @@
         <v>735</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1373,7 +1372,7 @@
         <v>829</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1443,7 +1442,7 @@
         <v>735</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1457,7 +1456,7 @@
         <v>829</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1484,7 +1483,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1503,13 +1504,13 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1556,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>500</v>
@@ -1595,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>5000</v>
@@ -1612,7 +1613,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>5000</v>
@@ -1629,7 +1630,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>5000</v>
@@ -1646,7 +1647,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
         <v>5000</v>
@@ -1663,7 +1664,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <v>10000</v>
@@ -1678,7 +1679,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>10000</v>
@@ -1693,7 +1694,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
         <v>5000</v>
@@ -1710,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>5000</v>
@@ -1727,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
         <v>5000</v>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F82233-54ED-4CA3-AC46-F3EA5C89F896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A49C8-D0DD-493C-909E-6C5FD7A59DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
     <sheet name="Store_Locations" sheetId="2" r:id="rId2"/>
     <sheet name="Population" sheetId="3" r:id="rId3"/>
+    <sheet name="Stores" sheetId="4" r:id="rId4"/>
+    <sheet name="Chain_Details" sheetId="5" r:id="rId5"/>
+    <sheet name="Explanation of Options" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
   <si>
     <t>case_x</t>
   </si>
@@ -49,9 +52,6 @@
     <t>chain</t>
   </si>
   <si>
-    <t>scenario</t>
-  </si>
-  <si>
     <t>store_x</t>
   </si>
   <si>
@@ -86,13 +86,52 @@
   </si>
   <si>
     <t>linear</t>
+  </si>
+  <si>
+    <t>no_of_chains</t>
+  </si>
+  <si>
+    <t>scenario_id</t>
+  </si>
+  <si>
+    <t>chain_id</t>
+  </si>
+  <si>
+    <t>num_stores</t>
+  </si>
+  <si>
+    <t>spatial_distribution</t>
+  </si>
+  <si>
+    <t>sales_distribution</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>total_sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>total_population, desired_gradient</t>
+  </si>
+  <si>
+    <t>total_population, desired_gradient, num_clusters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +141,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,27 +197,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,9 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C9A12-737E-45B0-A329-7250B15CD6A3}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -498,7 +536,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -923,19 +961,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E63A60-46A5-4F86-B9A0-EDE5315557A8}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -952,7 +992,7 @@
         <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -966,7 +1006,7 @@
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -980,7 +1020,7 @@
         <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -994,7 +1034,7 @@
         <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1008,7 +1048,7 @@
         <v>846</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1022,7 +1062,7 @@
         <v>855</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,7 +1076,7 @@
         <v>537</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1050,7 +1090,7 @@
         <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1064,7 +1104,7 @@
         <v>855</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1078,7 +1118,7 @@
         <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1092,7 +1132,7 @@
         <v>855</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1106,7 +1146,7 @@
         <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1120,7 +1160,7 @@
         <v>855</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1134,7 +1174,7 @@
         <v>825</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1148,7 +1188,7 @@
         <v>735</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1162,7 +1202,7 @@
         <v>855</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1176,7 +1216,7 @@
         <v>820</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1190,7 +1230,7 @@
         <v>730</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1204,7 +1244,7 @@
         <v>850</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1218,7 +1258,7 @@
         <v>735</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,7 +1272,7 @@
         <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1246,7 +1286,7 @@
         <v>822</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1260,7 +1300,7 @@
         <v>555</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1274,7 +1314,7 @@
         <v>735</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,7 +1328,7 @@
         <v>829</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1302,7 +1342,7 @@
         <v>735</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1316,7 +1356,7 @@
         <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1330,7 +1370,7 @@
         <v>822</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1344,7 +1384,7 @@
         <v>555</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1358,7 +1398,7 @@
         <v>735</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1372,7 +1412,7 @@
         <v>829</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1386,7 +1426,7 @@
         <v>735</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1400,7 +1440,7 @@
         <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1414,7 +1454,7 @@
         <v>822</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1428,7 +1468,7 @@
         <v>555</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1442,7 +1482,7 @@
         <v>735</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1456,7 +1496,7 @@
         <v>829</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,7 +1510,7 @@
         <v>550</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1484,13 +1524,13 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -1498,19 +1538,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1518,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>500</v>
@@ -1531,7 +1571,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>500</v>
@@ -1544,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>500</v>
@@ -1557,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>500</v>
@@ -1570,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>500</v>
@@ -1583,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>500</v>
@@ -1596,13 +1636,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>5000</v>
       </c>
       <c r="D8" s="1">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1613,13 +1653,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
         <v>5000</v>
       </c>
       <c r="D9" s="1">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1630,13 +1670,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
         <v>5000</v>
       </c>
       <c r="D10" s="1">
-        <v>2500</v>
+        <v>2.5</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -1647,13 +1687,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>5000</v>
       </c>
       <c r="D11" s="1">
-        <v>300</v>
+        <v>0.3</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -1664,13 +1704,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>10000</v>
       </c>
       <c r="D12" s="1">
-        <v>300</v>
+        <v>0.3</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1679,13 +1719,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>10000</v>
       </c>
       <c r="D13" s="1">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1694,13 +1734,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>5000</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="E14" s="1">
         <v>5</v>
@@ -1711,13 +1751,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="E15" s="1">
         <v>3</v>
@@ -1728,24 +1768,24 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>5000</v>
       </c>
       <c r="D16" s="1">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
         <v>500</v>
@@ -1756,4 +1796,216 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBD4BC-2492-48FA-B5D4-9D55D67013E4}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68C25E-78FC-45FA-8783-AFBB87773DC1}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4211E5B7-A40C-4F39-A0BD-B28B4E6A2487}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra.Rudeloff\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A49C8-D0DD-493C-909E-6C5FD7A59DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B6B891-C291-4EFC-9180-6ABF932403BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
-    <sheet name="Store_Locations" sheetId="2" r:id="rId2"/>
-    <sheet name="Population" sheetId="3" r:id="rId3"/>
-    <sheet name="Stores" sheetId="4" r:id="rId4"/>
-    <sheet name="Chain_Details" sheetId="5" r:id="rId5"/>
-    <sheet name="Explanation of Options" sheetId="6" r:id="rId6"/>
+    <sheet name="Outbreak" sheetId="7" r:id="rId2"/>
+    <sheet name="Store_Locations" sheetId="2" r:id="rId3"/>
+    <sheet name="Population" sheetId="3" r:id="rId4"/>
+    <sheet name="Stores" sheetId="4" r:id="rId5"/>
+    <sheet name="Chain_Details" sheetId="5" r:id="rId6"/>
+    <sheet name="Explanation of Options" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
   <si>
     <t>case_x</t>
   </si>
@@ -125,6 +126,12 @@
   </si>
   <si>
     <t>total_population, desired_gradient, num_clusters</t>
+  </si>
+  <si>
+    <t>list_outbreak_scenario_sizes</t>
+  </si>
+  <si>
+    <t>10, 20</t>
   </si>
 </sst>
 </file>
@@ -201,16 +208,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,12 +534,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -545,7 +550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -556,7 +561,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -567,7 +572,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -578,7 +583,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -589,7 +594,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -600,7 +605,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -611,7 +616,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -622,7 +627,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -633,7 +638,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -644,7 +649,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -655,7 +660,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -666,7 +671,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -677,7 +682,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -688,7 +693,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -699,7 +704,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -710,7 +715,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -721,7 +726,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -732,7 +737,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -743,7 +748,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -754,7 +759,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -765,7 +770,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -776,7 +781,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -787,7 +792,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -798,7 +803,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -809,7 +814,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -820,7 +825,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -831,7 +836,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -842,7 +847,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -853,7 +858,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -864,7 +869,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -875,7 +880,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -886,7 +891,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -897,7 +902,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -908,7 +913,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -919,7 +924,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -930,7 +935,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -941,7 +946,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -958,6 +963,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D2DD75-64B9-4611-81CD-049C64E4C3BB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E63A60-46A5-4F86-B9A0-EDE5315557A8}">
   <dimension ref="A1:D39"/>
   <sheetViews>
@@ -965,9 +1008,9 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -981,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -995,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1009,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1023,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1037,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1051,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1065,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1079,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1093,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1107,7 +1150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1121,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1135,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1149,7 +1192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1163,7 +1206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1177,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1191,7 +1234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1205,7 +1248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1219,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1233,7 +1276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1247,7 +1290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1261,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1275,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1289,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1303,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1317,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1331,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1345,7 +1388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1359,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
@@ -1373,7 +1416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
@@ -1387,7 +1430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
@@ -1401,7 +1444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1415,7 +1458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1429,7 +1472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1443,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1457,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1471,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1485,7 +1528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1499,7 +1542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -1519,24 +1562,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666FEEE3-41DA-4A9B-B6DA-1E3802A3E906}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +1596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1566,7 +1609,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1579,7 +1622,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1592,7 +1635,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1605,7 +1648,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1618,7 +1661,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1631,7 +1674,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1648,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1665,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1682,7 +1725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1699,7 +1742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1714,7 +1757,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1729,7 +1772,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1746,7 +1789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1763,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1780,7 +1823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1798,7 +1841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADBD4BC-2492-48FA-B5D4-9D55D67013E4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1806,13 +1849,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1820,95 +1863,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68C25E-78FC-45FA-8783-AFBB87773DC1}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1917,26 +1877,109 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68C25E-78FC-45FA-8783-AFBB87773DC1}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4211E5B7-A40C-4F39-A0BD-B28B4E6A2487}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1952,7 +1995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1960,7 +2003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1968,7 +2011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1976,31 +2019,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra.Rudeloff\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B6B891-C291-4EFC-9180-6ABF932403BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208A5BE5-1DC2-4A1B-9DCC-7DD0DF1BC2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
   <si>
     <t>case_x</t>
   </si>
@@ -131,7 +131,10 @@
     <t>list_outbreak_scenario_sizes</t>
   </si>
   <si>
-    <t>10, 20</t>
+    <t>10, 15, 20</t>
+  </si>
+  <si>
+    <t>no_of_trials_per_scenario</t>
   </si>
 </sst>
 </file>
@@ -534,12 +537,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -550,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -561,7 +564,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -572,7 +575,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -583,7 +586,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -594,7 +597,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -605,7 +608,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -616,7 +619,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -627,7 +630,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -638,7 +641,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -649,7 +652,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -660,7 +663,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -671,7 +674,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -682,7 +685,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -693,7 +696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -704,7 +707,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -715,7 +718,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -726,7 +729,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -737,7 +740,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -748,7 +751,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -759,7 +762,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -770,7 +773,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -781,7 +784,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -792,7 +795,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -803,7 +806,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -814,7 +817,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -825,7 +828,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5</v>
       </c>
@@ -836,7 +839,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
@@ -847,7 +850,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6</v>
       </c>
@@ -858,7 +861,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -869,7 +872,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6</v>
       </c>
@@ -880,7 +883,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -891,7 +894,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7</v>
       </c>
@@ -902,7 +905,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -913,7 +916,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -924,7 +927,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>8</v>
       </c>
@@ -935,7 +938,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -946,7 +949,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>16</v>
       </c>
@@ -967,31 +970,36 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1008,9 +1016,9 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1024,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1038,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1094,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1108,7 +1116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1122,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1136,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1150,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1164,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1178,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1192,7 +1200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1206,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1220,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1276,7 +1284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1304,7 +1312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1318,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1332,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1346,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1360,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1374,7 +1382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1388,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7</v>
       </c>
@@ -1416,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7</v>
       </c>
@@ -1444,7 +1452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1472,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1486,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1500,7 +1508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1528,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>16</v>
       </c>
@@ -1570,16 +1578,16 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1596,7 +1604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1609,7 +1617,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1622,7 +1630,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1635,7 +1643,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1648,7 +1656,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1661,7 +1669,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1674,7 +1682,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1691,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1708,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1725,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1757,7 +1765,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1772,7 +1780,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1789,7 +1797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1806,7 +1814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1823,7 +1831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1849,13 +1857,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1863,7 +1871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1881,20 +1889,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1934,7 +1942,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1967,19 +1975,19 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1987,7 +1995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1995,7 +2003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2003,7 +2011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2011,7 +2019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2019,7 +2027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4E52B1-E778-4A0E-BC1E-6B3C23268FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202FDD1-FAFC-49AA-8A60-FDA709326718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chain_Details" sheetId="5" r:id="rId1"/>
     <sheet name="Population" sheetId="3" r:id="rId2"/>
-    <sheet name="Outbreak" sheetId="7" r:id="rId3"/>
+    <sheet name="Outbreaks" sheetId="7" r:id="rId3"/>
     <sheet name="Explanation of Options" sheetId="6" r:id="rId4"/>
     <sheet name="Store_Locations" sheetId="2" r:id="rId5"/>
     <sheet name="Outbreak_Locations" sheetId="1" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
   <si>
     <t>case_x</t>
   </si>
@@ -136,14 +136,20 @@
     <t>tolerance</t>
   </si>
   <si>
-    <t>5, 10</t>
+    <t>Chain_details</t>
+  </si>
+  <si>
+    <t>add a new row for each chain that shall be defined</t>
+  </si>
+  <si>
+    <t>Outbreak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +165,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -213,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -221,6 +234,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,7 +553,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
@@ -599,7 +614,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
@@ -621,7 +636,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +915,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C2">
         <v>1E-3</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
+      <c r="D2">
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -954,33 +969,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4211E5B7-A40C-4F39-A0BD-B28B4E6A2487}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -988,41 +1017,95 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="6"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2202FDD1-FAFC-49AA-8A60-FDA709326718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67E4F99-1788-4884-9006-519C788E5EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chain_Details" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
   <si>
     <t>case_x</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Outbreak</t>
+  </si>
+  <si>
+    <t>popBased</t>
   </si>
 </sst>
 </file>
@@ -226,16 +229,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC68C25E-78FC-45FA-8783-AFBB87773DC1}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,9 +566,10 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -585,8 +588,11 @@
       <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -605,8 +611,9 @@
       <c r="F2" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -625,6 +632,51 @@
       <c r="F3" s="1">
         <v>1000</v>
       </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -636,7 +688,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D1" sqref="D1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,10 +964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D2DD75-64B9-4611-81CD-049C64E4C3BB}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,6 +1010,23 @@
         <v>5</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>1E-3</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
@@ -984,18 +1053,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1062,8 +1131,6 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -1072,7 +1139,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="6"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1081,7 +1148,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>

--- a/Traceback_Model/Data/scenarios.xlsx
+++ b/Traceback_Model/Data/scenarios.xlsx
@@ -5,13 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srude\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra.Rudeloff\Documents\Pattern Comparison Project\Toy_Example\Traceback_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51B8DC7-8CDF-48B8-8AD0-DC8F90D3DF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80512A7C-A102-4393-86E6-F1A1FCFE19E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-3907" windowWidth="25786" windowHeight="13867" activeTab="2" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
-    <workbookView xWindow="-25693" yWindow="-3907" windowWidth="25786" windowHeight="13867" activeTab="3" xr2:uid="{1B1DEDB5-1003-4DBF-8CF2-096DBDFF575C}"/>
+    <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{26397D4F-F0AB-4736-9A81-1ABFC6D3FF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Chain_Details" sheetId="5" r:id="rId1"/>
@@ -240,7 +239,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -294,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +312,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -547,18 +558,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,27 +600,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,12 +621,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,7 +949,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -943,29 +957,29 @@
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -979,13 +993,13 @@
       <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="17">
         <v>100000</v>
       </c>
       <c r="G2" s="2"/>
@@ -1000,13 +1014,13 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="17">
         <v>100000</v>
       </c>
       <c r="G3" s="2"/>
@@ -1021,13 +1035,13 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="17">
         <v>100000</v>
       </c>
       <c r="G4" s="2"/>
@@ -1042,22 +1056,22 @@
       <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="17">
         <v>100000</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1">
@@ -1069,16 +1083,16 @@
       <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="17">
         <v>100000</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35">
-        <v>5</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
@@ -1090,18 +1104,18 @@
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="17">
         <v>100000</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="19">
         <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="35">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1">
@@ -1113,16 +1127,16 @@
       <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="17">
         <v>100000</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1">
@@ -1134,13 +1148,13 @@
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="17">
         <v>100000</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1155,13 +1169,13 @@
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="17">
         <v>100000</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1176,13 +1190,13 @@
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="17">
         <v>100000</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="35">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1197,13 +1211,13 @@
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="17">
         <v>100000</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="35">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1218,13 +1232,13 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="17">
         <v>100000</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1239,13 +1253,13 @@
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="17">
         <v>100000</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1260,7 +1274,7 @@
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="17">
         <v>100000</v>
       </c>
       <c r="G15" s="2"/>
@@ -1275,13 +1289,13 @@
       <c r="C16" s="1">
         <v>10</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="17">
         <v>100000</v>
       </c>
       <c r="G16" s="2"/>
@@ -1296,13 +1310,13 @@
       <c r="C17" s="1">
         <v>10</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="33">
+      <c r="F17" s="17">
         <v>100000</v>
       </c>
       <c r="G17" s="2"/>
@@ -1317,13 +1331,13 @@
       <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="17">
         <v>100000</v>
       </c>
       <c r="G18" s="2"/>
@@ -1338,22 +1352,22 @@
       <c r="C19" s="1">
         <v>10</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="17">
         <v>100000</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="35">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="1">
@@ -1365,16 +1379,16 @@
       <c r="E20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="17">
         <v>100000</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="35">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1">
@@ -1386,18 +1400,18 @@
       <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="17">
         <v>100000</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="19">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="35">
+      <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="1">
@@ -1409,16 +1423,16 @@
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="17">
         <v>100000</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="35">
+      <c r="A23" s="1">
         <v>17</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="1">
@@ -1430,7 +1444,7 @@
       <c r="E23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="33">
+      <c r="F23" s="17">
         <v>100000</v>
       </c>
       <c r="G23" s="2"/>
@@ -1463,7 +1477,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1475,19 +1488,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1732,13 +1745,13 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="1">
         <v>5000</v>
       </c>
       <c r="D18" s="2"/>
@@ -1753,10 +1766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D2DD75-64B9-4611-81CD-049C64E4C3BB}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1768,19 +1780,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2083,18 +2095,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4211E5B7-A40C-4F39-A0BD-B28B4E6A2487}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="1">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="102.88671875" bestFit="1" customWidth="1"/>
@@ -2103,327 +2112,325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="E1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="29" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="30"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="13"/>
-      <c r="I2" s="16" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="15"/>
-      <c r="I3" s="18" t="s">
+      <c r="E3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="19"/>
-      <c r="I5" s="20" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="I5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="39" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="40" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" x14ac:dyDescent="0.35">
       <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="15"/>
-      <c r="J13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="14" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
